--- a/Code/Results/Cases/Case_4_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010798121503886</v>
+        <v>1.035834837302759</v>
       </c>
       <c r="D2">
-        <v>1.026094320269009</v>
+        <v>1.038271095357433</v>
       </c>
       <c r="E2">
-        <v>1.026029232347433</v>
+        <v>1.049068466986634</v>
       </c>
       <c r="F2">
-        <v>1.02801902486574</v>
+        <v>1.055904597844594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049131728775812</v>
+        <v>1.038812449299044</v>
       </c>
       <c r="J2">
-        <v>1.03266059051975</v>
+        <v>1.040946445527476</v>
       </c>
       <c r="K2">
-        <v>1.037201706495461</v>
+        <v>1.04105960431029</v>
       </c>
       <c r="L2">
-        <v>1.037137468545434</v>
+        <v>1.051826554784042</v>
       </c>
       <c r="M2">
-        <v>1.039101337628211</v>
+        <v>1.058643773686053</v>
       </c>
       <c r="N2">
-        <v>1.014704116235097</v>
+        <v>1.017595811412561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01489565859014</v>
+        <v>1.036697336242432</v>
       </c>
       <c r="D3">
-        <v>1.029034716762383</v>
+        <v>1.038904091156046</v>
       </c>
       <c r="E3">
-        <v>1.029932299114682</v>
+        <v>1.049951018649166</v>
       </c>
       <c r="F3">
-        <v>1.032477816134995</v>
+        <v>1.056928557161377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050436126606365</v>
+        <v>1.039024252891043</v>
       </c>
       <c r="J3">
-        <v>1.034988328327864</v>
+        <v>1.041453096681774</v>
       </c>
       <c r="K3">
-        <v>1.039309097150011</v>
+        <v>1.041503047006685</v>
       </c>
       <c r="L3">
-        <v>1.040195996138033</v>
+        <v>1.052521096479768</v>
       </c>
       <c r="M3">
-        <v>1.04271134060131</v>
+        <v>1.05948073034828</v>
       </c>
       <c r="N3">
-        <v>1.015485180326522</v>
+        <v>1.017764911107185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017495362291834</v>
+        <v>1.037255838866624</v>
       </c>
       <c r="D4">
-        <v>1.030902237475111</v>
+        <v>1.039313911060692</v>
       </c>
       <c r="E4">
-        <v>1.032413757736548</v>
+        <v>1.050522911557451</v>
       </c>
       <c r="F4">
-        <v>1.035313405488536</v>
+        <v>1.057592274803294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051253123715269</v>
+        <v>1.039160100893113</v>
       </c>
       <c r="J4">
-        <v>1.03646188107424</v>
+        <v>1.041780688481957</v>
       </c>
       <c r="K4">
-        <v>1.040641474373496</v>
+        <v>1.041789524003802</v>
       </c>
       <c r="L4">
-        <v>1.04213610476504</v>
+        <v>1.05297069570864</v>
       </c>
       <c r="M4">
-        <v>1.045003521343293</v>
+        <v>1.060022833858758</v>
       </c>
       <c r="N4">
-        <v>1.015979533993474</v>
+        <v>1.017874213203426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018576308118631</v>
+        <v>1.03749072978861</v>
       </c>
       <c r="D5">
-        <v>1.031679173250676</v>
+        <v>1.039486252727134</v>
       </c>
       <c r="E5">
-        <v>1.033446750739636</v>
+        <v>1.050763530877962</v>
       </c>
       <c r="F5">
-        <v>1.03649403191055</v>
+        <v>1.057871574983335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051590251536789</v>
+        <v>1.039216922698905</v>
       </c>
       <c r="J5">
-        <v>1.037073761607416</v>
+        <v>1.041918348295808</v>
       </c>
       <c r="K5">
-        <v>1.041194317175216</v>
+        <v>1.041909847735413</v>
       </c>
       <c r="L5">
-        <v>1.042942676618264</v>
+        <v>1.053159750112453</v>
       </c>
       <c r="M5">
-        <v>1.04595701479704</v>
+        <v>1.060250861323758</v>
       </c>
       <c r="N5">
-        <v>1.016184785687265</v>
+        <v>1.017920135473626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018757113117058</v>
+        <v>1.037530174624588</v>
       </c>
       <c r="D6">
-        <v>1.031809151765553</v>
+        <v>1.039515192737311</v>
       </c>
       <c r="E6">
-        <v>1.033619605627353</v>
+        <v>1.050803943344372</v>
       </c>
       <c r="F6">
-        <v>1.036691604006556</v>
+        <v>1.057918486696542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051646488925915</v>
+        <v>1.039226446381403</v>
       </c>
       <c r="J6">
-        <v>1.037176059387201</v>
+        <v>1.041941458448725</v>
       </c>
       <c r="K6">
-        <v>1.041286719915945</v>
+        <v>1.041930044068053</v>
       </c>
       <c r="L6">
-        <v>1.043077580746199</v>
+        <v>1.053191495657802</v>
       </c>
       <c r="M6">
-        <v>1.046116525294933</v>
+        <v>1.060289155556553</v>
       </c>
       <c r="N6">
-        <v>1.016219099352228</v>
+        <v>1.017927844352184</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017509852455923</v>
+        <v>1.037258977113368</v>
       </c>
       <c r="D7">
-        <v>1.030912650725477</v>
+        <v>1.039316213690639</v>
       </c>
       <c r="E7">
-        <v>1.03242760032388</v>
+        <v>1.050526125958094</v>
       </c>
       <c r="F7">
-        <v>1.035329225562996</v>
+        <v>1.057596005753937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051257653162601</v>
+        <v>1.039160861284073</v>
       </c>
       <c r="J7">
-        <v>1.036470086640315</v>
+        <v>1.041782528135314</v>
       </c>
       <c r="K7">
-        <v>1.040648889877214</v>
+        <v>1.041791132213647</v>
       </c>
       <c r="L7">
-        <v>1.042146917417515</v>
+        <v>1.052973221695863</v>
       </c>
       <c r="M7">
-        <v>1.045016301382925</v>
+        <v>1.060025880274934</v>
       </c>
       <c r="N7">
-        <v>1.015982286602342</v>
+        <v>1.017874826930858</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01219385136715</v>
+        <v>1.036126237573933</v>
       </c>
       <c r="D8">
-        <v>1.02709545682682</v>
+        <v>1.038484970863701</v>
       </c>
       <c r="E8">
-        <v>1.027357631456663</v>
+        <v>1.049366558162935</v>
       </c>
       <c r="F8">
-        <v>1.029536403771605</v>
+        <v>1.056250411233662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04957823712759</v>
+        <v>1.038884278016197</v>
       </c>
       <c r="J8">
-        <v>1.033454153473418</v>
+        <v>1.041117720841101</v>
       </c>
       <c r="K8">
-        <v>1.037920496859545</v>
+        <v>1.041209562474688</v>
       </c>
       <c r="L8">
-        <v>1.038179351377908</v>
+        <v>1.052061239496111</v>
       </c>
       <c r="M8">
-        <v>1.040330613897209</v>
+        <v>1.058926515216976</v>
       </c>
       <c r="N8">
-        <v>1.014970411119178</v>
+        <v>1.017652983378218</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002411560472059</v>
+        <v>1.034133388626731</v>
       </c>
       <c r="D9">
-        <v>1.020088998261753</v>
+        <v>1.037022037794994</v>
       </c>
       <c r="E9">
-        <v>1.018069869428018</v>
+        <v>1.047329619827133</v>
       </c>
       <c r="F9">
-        <v>1.018930026977819</v>
+        <v>1.053888153376426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046405445933601</v>
+        <v>1.038387718519064</v>
       </c>
       <c r="J9">
-        <v>1.027879446787668</v>
+        <v>1.039944411894535</v>
       </c>
       <c r="K9">
-        <v>1.032864341840112</v>
+        <v>1.040181285154605</v>
       </c>
       <c r="L9">
-        <v>1.03087642400809</v>
+        <v>1.050455676530674</v>
       </c>
       <c r="M9">
-        <v>1.031723266222522</v>
+        <v>1.056993461026155</v>
       </c>
       <c r="N9">
-        <v>1.013099429529203</v>
+        <v>1.017261190003993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955829416017505</v>
+        <v>1.03280703869134</v>
       </c>
       <c r="D10">
-        <v>1.015213239971086</v>
+        <v>1.036048064624691</v>
       </c>
       <c r="E10">
-        <v>1.011616220451809</v>
+        <v>1.045976030078141</v>
       </c>
       <c r="F10">
-        <v>1.011562635848586</v>
+        <v>1.052319350497983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044137271815088</v>
+        <v>1.038050543585087</v>
       </c>
       <c r="J10">
-        <v>1.023972911327118</v>
+        <v>1.039161034370784</v>
       </c>
       <c r="K10">
-        <v>1.02931314203794</v>
+        <v>1.039493491478634</v>
       </c>
       <c r="L10">
-        <v>1.025778860741785</v>
+        <v>1.049386360073614</v>
       </c>
       <c r="M10">
-        <v>1.025726215116447</v>
+        <v>1.055707637620354</v>
       </c>
       <c r="N10">
-        <v>1.011788072476224</v>
+        <v>1.01699942803566</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9925464549042072</v>
+        <v>1.032233255917391</v>
       </c>
       <c r="D11">
-        <v>1.013049461341167</v>
+        <v>1.035626654383046</v>
       </c>
       <c r="E11">
-        <v>1.008753885259477</v>
+        <v>1.045390965335228</v>
       </c>
       <c r="F11">
-        <v>1.008295329959265</v>
+        <v>1.051641490651969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043116561962384</v>
+        <v>1.037903096203696</v>
       </c>
       <c r="J11">
-        <v>1.02223263142541</v>
+        <v>1.038821558141291</v>
       </c>
       <c r="K11">
-        <v>1.027729409628614</v>
+        <v>1.039195142544764</v>
       </c>
       <c r="L11">
-        <v>1.023512582993911</v>
+        <v>1.04892360061746</v>
       </c>
       <c r="M11">
-        <v>1.023062485905402</v>
+        <v>1.055151560942705</v>
       </c>
       <c r="N11">
-        <v>1.011203869189397</v>
+        <v>1.016885952691454</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9914059813592933</v>
+        <v>1.032020209138235</v>
       </c>
       <c r="D12">
-        <v>1.012237483253183</v>
+        <v>1.035470174430657</v>
       </c>
       <c r="E12">
-        <v>1.007679966967413</v>
+        <v>1.045173805225265</v>
       </c>
       <c r="F12">
-        <v>1.007069488253072</v>
+        <v>1.051389921377396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042731420427121</v>
+        <v>1.037848110713524</v>
       </c>
       <c r="J12">
-        <v>1.021578562050894</v>
+        <v>1.038695422207127</v>
       </c>
       <c r="K12">
-        <v>1.027133928768004</v>
+        <v>1.03908424390864</v>
       </c>
       <c r="L12">
-        <v>1.02266149534073</v>
+        <v>1.048751751660552</v>
       </c>
       <c r="M12">
-        <v>1.022062489857511</v>
+        <v>1.054945114742727</v>
       </c>
       <c r="N12">
-        <v>1.010984301385228</v>
+        <v>1.016843783643143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9916511968181277</v>
+        <v>1.032065904678982</v>
       </c>
       <c r="D13">
-        <v>1.012412034871178</v>
+        <v>1.035503737598779</v>
       </c>
       <c r="E13">
-        <v>1.007910819950499</v>
+        <v>1.045220379588252</v>
       </c>
       <c r="F13">
-        <v>1.007332998849136</v>
+        <v>1.051443873951063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042814309811453</v>
+        <v>1.037859915095777</v>
       </c>
       <c r="J13">
-        <v>1.021719213979023</v>
+        <v>1.038722480557583</v>
       </c>
       <c r="K13">
-        <v>1.027261992746774</v>
+        <v>1.039108035580953</v>
       </c>
       <c r="L13">
-        <v>1.02284448413943</v>
+        <v>1.048788611992694</v>
       </c>
       <c r="M13">
-        <v>1.022277479155532</v>
+        <v>1.054989393361729</v>
       </c>
       <c r="N13">
-        <v>1.011031517478206</v>
+        <v>1.016852829912277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9924524435127473</v>
+        <v>1.032215643730527</v>
       </c>
       <c r="D14">
-        <v>1.012982513528574</v>
+        <v>1.035613718660928</v>
       </c>
       <c r="E14">
-        <v>1.008665336661572</v>
+        <v>1.045373011561131</v>
       </c>
       <c r="F14">
-        <v>1.008194254511138</v>
+        <v>1.051620691400988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043084849787546</v>
+        <v>1.037898555508294</v>
       </c>
       <c r="J14">
-        <v>1.022178723937041</v>
+        <v>1.03881113250248</v>
       </c>
       <c r="K14">
-        <v>1.027680335893814</v>
+        <v>1.039185977225521</v>
       </c>
       <c r="L14">
-        <v>1.023442423927431</v>
+        <v>1.048909394695729</v>
       </c>
       <c r="M14">
-        <v>1.02298004456199</v>
+        <v>1.055134493877164</v>
       </c>
       <c r="N14">
-        <v>1.011185772697209</v>
+        <v>1.016882467375319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9929444308694549</v>
+        <v>1.032307913764104</v>
       </c>
       <c r="D15">
-        <v>1.013332899316991</v>
+        <v>1.035681488369951</v>
       </c>
       <c r="E15">
-        <v>1.009128782629631</v>
+        <v>1.04546707426772</v>
       </c>
       <c r="F15">
-        <v>1.008723264098057</v>
+        <v>1.051729663403407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04325073627139</v>
+        <v>1.037922334410583</v>
       </c>
       <c r="J15">
-        <v>1.022460818952547</v>
+        <v>1.038865748707802</v>
       </c>
       <c r="K15">
-        <v>1.027937126088178</v>
+        <v>1.039233989266188</v>
       </c>
       <c r="L15">
-        <v>1.023809589952106</v>
+        <v>1.048983818309314</v>
       </c>
       <c r="M15">
-        <v>1.023411502150445</v>
+        <v>1.05522390910318</v>
       </c>
       <c r="N15">
-        <v>1.011280470697098</v>
+        <v>1.016900725454643</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9957827330285209</v>
+        <v>1.032845130152307</v>
       </c>
       <c r="D16">
-        <v>1.015355705557274</v>
+        <v>1.036076039244041</v>
       </c>
       <c r="E16">
-        <v>1.011804710451316</v>
+        <v>1.04601488111399</v>
       </c>
       <c r="F16">
-        <v>1.011777797805903</v>
+        <v>1.052364368326282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044204182696919</v>
+        <v>1.038060298720413</v>
       </c>
       <c r="J16">
-        <v>1.024087353579095</v>
+        <v>1.039183558716988</v>
       </c>
       <c r="K16">
-        <v>1.02941725436984</v>
+        <v>1.039513280841693</v>
       </c>
       <c r="L16">
-        <v>1.025927987235998</v>
+        <v>1.04941707750948</v>
       </c>
       <c r="M16">
-        <v>1.025901544563451</v>
+        <v>1.055744557314372</v>
       </c>
       <c r="N16">
-        <v>1.011826489998492</v>
+        <v>1.017006956299675</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9975413748212011</v>
+        <v>1.033182256041133</v>
       </c>
       <c r="D17">
-        <v>1.016610243722353</v>
+        <v>1.036323619082878</v>
       </c>
       <c r="E17">
-        <v>1.013464720906082</v>
+        <v>1.046358787627695</v>
       </c>
       <c r="F17">
-        <v>1.013672735621603</v>
+        <v>1.052762889038925</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044791783373976</v>
+        <v>1.038146452757599</v>
       </c>
       <c r="J17">
-        <v>1.025094363341017</v>
+        <v>1.03938284133925</v>
       </c>
       <c r="K17">
-        <v>1.030333171073365</v>
+        <v>1.039688331969554</v>
       </c>
       <c r="L17">
-        <v>1.027240712947578</v>
+        <v>1.049688920452812</v>
       </c>
       <c r="M17">
-        <v>1.027445205350075</v>
+        <v>1.056071332705468</v>
       </c>
       <c r="N17">
-        <v>1.012164534633451</v>
+        <v>1.017073557383154</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9985595197918026</v>
+        <v>1.033378947453236</v>
       </c>
       <c r="D18">
-        <v>1.017336950450918</v>
+        <v>1.036468059622046</v>
       </c>
       <c r="E18">
-        <v>1.014426466257594</v>
+        <v>1.04655948355116</v>
       </c>
       <c r="F18">
-        <v>1.014770618530376</v>
+        <v>1.052995478481833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045130813737794</v>
+        <v>1.038196565156351</v>
       </c>
       <c r="J18">
-        <v>1.025677057407065</v>
+        <v>1.039499053538497</v>
       </c>
       <c r="K18">
-        <v>1.030862988558645</v>
+        <v>1.039790385150257</v>
       </c>
       <c r="L18">
-        <v>1.028000741333681</v>
+        <v>1.049847507004814</v>
       </c>
       <c r="M18">
-        <v>1.028339171216099</v>
+        <v>1.056262002074614</v>
       </c>
       <c r="N18">
-        <v>1.012360137872302</v>
+        <v>1.017112392033648</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.998905403056711</v>
+        <v>1.033446022853876</v>
       </c>
       <c r="D19">
-        <v>1.017583893667608</v>
+        <v>1.036517315394525</v>
       </c>
       <c r="E19">
-        <v>1.014753307619729</v>
+        <v>1.046627932774078</v>
       </c>
       <c r="F19">
-        <v>1.015143730973519</v>
+        <v>1.053074809014985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045245791655557</v>
+        <v>1.03821362845846</v>
       </c>
       <c r="J19">
-        <v>1.025874957334419</v>
+        <v>1.039538674457543</v>
       </c>
       <c r="K19">
-        <v>1.031042901371044</v>
+        <v>1.039825173935188</v>
       </c>
       <c r="L19">
-        <v>1.028258943477123</v>
+        <v>1.049901585152195</v>
       </c>
       <c r="M19">
-        <v>1.028642915505502</v>
+        <v>1.056327026696032</v>
       </c>
       <c r="N19">
-        <v>1.012426569975955</v>
+        <v>1.017125631491234</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973534839060241</v>
+        <v>1.033146080279167</v>
       </c>
       <c r="D20">
-        <v>1.016476167924514</v>
+        <v>1.036297052849655</v>
       </c>
       <c r="E20">
-        <v>1.013287294604274</v>
+        <v>1.046321879248571</v>
       </c>
       <c r="F20">
-        <v>1.013470196759534</v>
+        <v>1.052720117145014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044729124299662</v>
+        <v>1.038137223699638</v>
       </c>
       <c r="J20">
-        <v>1.024986806889029</v>
+        <v>1.039361462880115</v>
       </c>
       <c r="K20">
-        <v>1.030235361262079</v>
+        <v>1.03966955592661</v>
       </c>
       <c r="L20">
-        <v>1.027100458583005</v>
+        <v>1.049659751666325</v>
       </c>
       <c r="M20">
-        <v>1.027280253325767</v>
+        <v>1.056036265878691</v>
       </c>
       <c r="N20">
-        <v>1.012128429052228</v>
+        <v>1.017066413021315</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.992216848989432</v>
+        <v>1.032171547046973</v>
       </c>
       <c r="D21">
-        <v>1.012814752650875</v>
+        <v>1.035581330571098</v>
       </c>
       <c r="E21">
-        <v>1.008443450584199</v>
+        <v>1.045328060848917</v>
       </c>
       <c r="F21">
-        <v>1.007940978697164</v>
+        <v>1.051568617038533</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043005350005657</v>
+        <v>1.03788718285412</v>
       </c>
       <c r="J21">
-        <v>1.022043623709229</v>
+        <v>1.0387850277924</v>
       </c>
       <c r="K21">
-        <v>1.027557345820013</v>
+        <v>1.03916302751417</v>
       </c>
       <c r="L21">
-        <v>1.023266605614406</v>
+        <v>1.048873826072185</v>
       </c>
       <c r="M21">
-        <v>1.022773452540433</v>
+        <v>1.055091762471097</v>
       </c>
       <c r="N21">
-        <v>1.011140420192767</v>
+        <v>1.016873740409566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9889140795438558</v>
+        <v>1.031559292577608</v>
       </c>
       <c r="D22">
-        <v>1.010464723206586</v>
+        <v>1.035131620923314</v>
       </c>
       <c r="E22">
-        <v>1.005335629289267</v>
+        <v>1.04470412833808</v>
       </c>
       <c r="F22">
-        <v>1.004393506637215</v>
+        <v>1.050845885500647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041886691316405</v>
+        <v>1.037728717260352</v>
       </c>
       <c r="J22">
-        <v>1.020148675812391</v>
+        <v>1.038422373020809</v>
       </c>
       <c r="K22">
-        <v>1.025831683851983</v>
+        <v>1.038844098993289</v>
       </c>
       <c r="L22">
-        <v>1.020802122212515</v>
+        <v>1.048379918429864</v>
       </c>
       <c r="M22">
-        <v>1.019878426874215</v>
+        <v>1.054498526350826</v>
       </c>
       <c r="N22">
-        <v>1.010504299363498</v>
+        <v>1.016752488288041</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9906720932168586</v>
+        <v>1.031883814982935</v>
       </c>
       <c r="D23">
-        <v>1.01171518990161</v>
+        <v>1.035369992205632</v>
       </c>
       <c r="E23">
-        <v>1.006989233707402</v>
+        <v>1.045034799023237</v>
       </c>
       <c r="F23">
-        <v>1.006281040836416</v>
+        <v>1.051228899049677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042483090495697</v>
+        <v>1.037812841614484</v>
       </c>
       <c r="J23">
-        <v>1.021157553476701</v>
+        <v>1.038614644372421</v>
       </c>
       <c r="K23">
-        <v>1.026750563941846</v>
+        <v>1.039013211727501</v>
       </c>
       <c r="L23">
-        <v>1.022113858846629</v>
+        <v>1.048641725541334</v>
       </c>
       <c r="M23">
-        <v>1.021419134880458</v>
+        <v>1.054812953734162</v>
       </c>
       <c r="N23">
-        <v>1.010842971331169</v>
+        <v>1.01681677674547</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974384072909606</v>
+        <v>1.03316242638956</v>
       </c>
       <c r="D24">
-        <v>1.016536766568453</v>
+        <v>1.03630905689005</v>
       </c>
       <c r="E24">
-        <v>1.013367485994949</v>
+        <v>1.046338556244252</v>
       </c>
       <c r="F24">
-        <v>1.013561738183231</v>
+        <v>1.052739443493259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044757448679285</v>
+        <v>1.038141394345671</v>
       </c>
       <c r="J24">
-        <v>1.025035421451447</v>
+        <v>1.039371122965959</v>
       </c>
       <c r="K24">
-        <v>1.030279570947223</v>
+        <v>1.03967804017046</v>
       </c>
       <c r="L24">
-        <v>1.027163850960546</v>
+        <v>1.049672931707758</v>
       </c>
       <c r="M24">
-        <v>1.027354807864861</v>
+        <v>1.056052110861963</v>
       </c>
       <c r="N24">
-        <v>1.012144748461848</v>
+        <v>1.017069641289985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00499247291234</v>
+        <v>1.034648202837311</v>
       </c>
       <c r="D25">
-        <v>1.021935163976055</v>
+        <v>1.037400015756226</v>
       </c>
       <c r="E25">
-        <v>1.020515284759449</v>
+        <v>1.047855453529854</v>
       </c>
       <c r="F25">
-        <v>1.021722098131369</v>
+        <v>1.054497796012523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047251922484811</v>
+        <v>1.038517175355496</v>
       </c>
       <c r="J25">
-        <v>1.029352980695255</v>
+        <v>1.040247951360665</v>
       </c>
       <c r="K25">
-        <v>1.034202246997536</v>
+        <v>1.040447525120595</v>
       </c>
       <c r="L25">
-        <v>1.032803261201036</v>
+        <v>1.050870571766758</v>
       </c>
       <c r="M25">
-        <v>1.033992311699342</v>
+        <v>1.057492700032961</v>
       </c>
       <c r="N25">
-        <v>1.013594031172347</v>
+        <v>1.017362579498867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035834837302759</v>
+        <v>1.010798121503887</v>
       </c>
       <c r="D2">
-        <v>1.038271095357433</v>
+        <v>1.026094320269009</v>
       </c>
       <c r="E2">
-        <v>1.049068466986634</v>
+        <v>1.026029232347434</v>
       </c>
       <c r="F2">
-        <v>1.055904597844594</v>
+        <v>1.028019024865741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038812449299044</v>
+        <v>1.049131728775812</v>
       </c>
       <c r="J2">
-        <v>1.040946445527476</v>
+        <v>1.03266059051975</v>
       </c>
       <c r="K2">
-        <v>1.04105960431029</v>
+        <v>1.037201706495462</v>
       </c>
       <c r="L2">
-        <v>1.051826554784042</v>
+        <v>1.037137468545434</v>
       </c>
       <c r="M2">
-        <v>1.058643773686053</v>
+        <v>1.039101337628212</v>
       </c>
       <c r="N2">
-        <v>1.017595811412561</v>
+        <v>1.014704116235097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036697336242432</v>
+        <v>1.014895658590139</v>
       </c>
       <c r="D3">
-        <v>1.038904091156046</v>
+        <v>1.029034716762382</v>
       </c>
       <c r="E3">
-        <v>1.049951018649166</v>
+        <v>1.029932299114681</v>
       </c>
       <c r="F3">
-        <v>1.056928557161377</v>
+        <v>1.032477816134994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039024252891043</v>
+        <v>1.050436126606364</v>
       </c>
       <c r="J3">
-        <v>1.041453096681774</v>
+        <v>1.034988328327864</v>
       </c>
       <c r="K3">
-        <v>1.041503047006685</v>
+        <v>1.039309097150011</v>
       </c>
       <c r="L3">
-        <v>1.052521096479768</v>
+        <v>1.040195996138032</v>
       </c>
       <c r="M3">
-        <v>1.05948073034828</v>
+        <v>1.04271134060131</v>
       </c>
       <c r="N3">
-        <v>1.017764911107185</v>
+        <v>1.015485180326522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037255838866624</v>
+        <v>1.017495362291835</v>
       </c>
       <c r="D4">
-        <v>1.039313911060692</v>
+        <v>1.030902237475112</v>
       </c>
       <c r="E4">
-        <v>1.050522911557451</v>
+        <v>1.032413757736549</v>
       </c>
       <c r="F4">
-        <v>1.057592274803294</v>
+        <v>1.035313405488537</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039160100893113</v>
+        <v>1.051253123715269</v>
       </c>
       <c r="J4">
-        <v>1.041780688481957</v>
+        <v>1.03646188107424</v>
       </c>
       <c r="K4">
-        <v>1.041789524003802</v>
+        <v>1.040641474373497</v>
       </c>
       <c r="L4">
-        <v>1.05297069570864</v>
+        <v>1.042136104765041</v>
       </c>
       <c r="M4">
-        <v>1.060022833858758</v>
+        <v>1.045003521343293</v>
       </c>
       <c r="N4">
-        <v>1.017874213203426</v>
+        <v>1.015979533993474</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03749072978861</v>
+        <v>1.01857630811863</v>
       </c>
       <c r="D5">
-        <v>1.039486252727134</v>
+        <v>1.031679173250674</v>
       </c>
       <c r="E5">
-        <v>1.050763530877962</v>
+        <v>1.033446750739635</v>
       </c>
       <c r="F5">
-        <v>1.057871574983335</v>
+        <v>1.036494031910549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039216922698905</v>
+        <v>1.051590251536789</v>
       </c>
       <c r="J5">
-        <v>1.041918348295808</v>
+        <v>1.037073761607415</v>
       </c>
       <c r="K5">
-        <v>1.041909847735413</v>
+        <v>1.041194317175215</v>
       </c>
       <c r="L5">
-        <v>1.053159750112453</v>
+        <v>1.042942676618263</v>
       </c>
       <c r="M5">
-        <v>1.060250861323758</v>
+        <v>1.045957014797039</v>
       </c>
       <c r="N5">
-        <v>1.017920135473626</v>
+        <v>1.016184785687265</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037530174624588</v>
+        <v>1.018757113117058</v>
       </c>
       <c r="D6">
-        <v>1.039515192737311</v>
+        <v>1.031809151765554</v>
       </c>
       <c r="E6">
-        <v>1.050803943344372</v>
+        <v>1.033619605627353</v>
       </c>
       <c r="F6">
-        <v>1.057918486696542</v>
+        <v>1.036691604006556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039226446381403</v>
+        <v>1.051646488925916</v>
       </c>
       <c r="J6">
-        <v>1.041941458448725</v>
+        <v>1.037176059387201</v>
       </c>
       <c r="K6">
-        <v>1.041930044068053</v>
+        <v>1.041286719915944</v>
       </c>
       <c r="L6">
-        <v>1.053191495657802</v>
+        <v>1.0430775807462</v>
       </c>
       <c r="M6">
-        <v>1.060289155556553</v>
+        <v>1.046116525294933</v>
       </c>
       <c r="N6">
-        <v>1.017927844352184</v>
+        <v>1.016219099352228</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037258977113368</v>
+        <v>1.017509852455922</v>
       </c>
       <c r="D7">
-        <v>1.039316213690639</v>
+        <v>1.030912650725476</v>
       </c>
       <c r="E7">
-        <v>1.050526125958094</v>
+        <v>1.032427600323879</v>
       </c>
       <c r="F7">
-        <v>1.057596005753937</v>
+        <v>1.035329225562995</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039160861284073</v>
+        <v>1.0512576531626</v>
       </c>
       <c r="J7">
-        <v>1.041782528135314</v>
+        <v>1.036470086640314</v>
       </c>
       <c r="K7">
-        <v>1.041791132213647</v>
+        <v>1.040648889877213</v>
       </c>
       <c r="L7">
-        <v>1.052973221695863</v>
+        <v>1.042146917417514</v>
       </c>
       <c r="M7">
-        <v>1.060025880274934</v>
+        <v>1.045016301382924</v>
       </c>
       <c r="N7">
-        <v>1.017874826930858</v>
+        <v>1.015982286602342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036126237573933</v>
+        <v>1.01219385136715</v>
       </c>
       <c r="D8">
-        <v>1.038484970863701</v>
+        <v>1.027095456826819</v>
       </c>
       <c r="E8">
-        <v>1.049366558162935</v>
+        <v>1.027357631456663</v>
       </c>
       <c r="F8">
-        <v>1.056250411233662</v>
+        <v>1.029536403771606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038884278016197</v>
+        <v>1.04957823712759</v>
       </c>
       <c r="J8">
-        <v>1.041117720841101</v>
+        <v>1.033454153473418</v>
       </c>
       <c r="K8">
-        <v>1.041209562474688</v>
+        <v>1.037920496859545</v>
       </c>
       <c r="L8">
-        <v>1.052061239496111</v>
+        <v>1.038179351377908</v>
       </c>
       <c r="M8">
-        <v>1.058926515216976</v>
+        <v>1.040330613897209</v>
       </c>
       <c r="N8">
-        <v>1.017652983378218</v>
+        <v>1.014970411119178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034133388626731</v>
+        <v>1.00241156047206</v>
       </c>
       <c r="D9">
-        <v>1.037022037794994</v>
+        <v>1.020088998261753</v>
       </c>
       <c r="E9">
-        <v>1.047329619827133</v>
+        <v>1.018069869428019</v>
       </c>
       <c r="F9">
-        <v>1.053888153376426</v>
+        <v>1.018930026977819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038387718519064</v>
+        <v>1.046405445933601</v>
       </c>
       <c r="J9">
-        <v>1.039944411894535</v>
+        <v>1.027879446787668</v>
       </c>
       <c r="K9">
-        <v>1.040181285154605</v>
+        <v>1.032864341840112</v>
       </c>
       <c r="L9">
-        <v>1.050455676530674</v>
+        <v>1.03087642400809</v>
       </c>
       <c r="M9">
-        <v>1.056993461026155</v>
+        <v>1.031723266222522</v>
       </c>
       <c r="N9">
-        <v>1.017261190003993</v>
+        <v>1.013099429529203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03280703869134</v>
+        <v>0.9955829416017498</v>
       </c>
       <c r="D10">
-        <v>1.036048064624691</v>
+        <v>1.015213239971085</v>
       </c>
       <c r="E10">
-        <v>1.045976030078141</v>
+        <v>1.011616220451808</v>
       </c>
       <c r="F10">
-        <v>1.052319350497983</v>
+        <v>1.011562635848585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038050543585087</v>
+        <v>1.044137271815087</v>
       </c>
       <c r="J10">
-        <v>1.039161034370784</v>
+        <v>1.023972911327117</v>
       </c>
       <c r="K10">
-        <v>1.039493491478634</v>
+        <v>1.02931314203794</v>
       </c>
       <c r="L10">
-        <v>1.049386360073614</v>
+        <v>1.025778860741784</v>
       </c>
       <c r="M10">
-        <v>1.055707637620354</v>
+        <v>1.025726215116446</v>
       </c>
       <c r="N10">
-        <v>1.01699942803566</v>
+        <v>1.011788072476223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032233255917391</v>
+        <v>0.9925464549042059</v>
       </c>
       <c r="D11">
-        <v>1.035626654383046</v>
+        <v>1.013049461341165</v>
       </c>
       <c r="E11">
-        <v>1.045390965335228</v>
+        <v>1.008753885259476</v>
       </c>
       <c r="F11">
-        <v>1.051641490651969</v>
+        <v>1.008295329959264</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037903096203696</v>
+        <v>1.043116561962383</v>
       </c>
       <c r="J11">
-        <v>1.038821558141291</v>
+        <v>1.02223263142541</v>
       </c>
       <c r="K11">
-        <v>1.039195142544764</v>
+        <v>1.027729409628613</v>
       </c>
       <c r="L11">
-        <v>1.04892360061746</v>
+        <v>1.02351258299391</v>
       </c>
       <c r="M11">
-        <v>1.055151560942705</v>
+        <v>1.023062485905401</v>
       </c>
       <c r="N11">
-        <v>1.016885952691454</v>
+        <v>1.011203869189396</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032020209138235</v>
+        <v>0.9914059813592936</v>
       </c>
       <c r="D12">
-        <v>1.035470174430657</v>
+        <v>1.012237483253184</v>
       </c>
       <c r="E12">
-        <v>1.045173805225265</v>
+        <v>1.007679966967412</v>
       </c>
       <c r="F12">
-        <v>1.051389921377396</v>
+        <v>1.007069488253072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037848110713524</v>
+        <v>1.042731420427121</v>
       </c>
       <c r="J12">
-        <v>1.038695422207127</v>
+        <v>1.021578562050894</v>
       </c>
       <c r="K12">
-        <v>1.03908424390864</v>
+        <v>1.027133928768004</v>
       </c>
       <c r="L12">
-        <v>1.048751751660552</v>
+        <v>1.02266149534073</v>
       </c>
       <c r="M12">
-        <v>1.054945114742727</v>
+        <v>1.022062489857511</v>
       </c>
       <c r="N12">
-        <v>1.016843783643143</v>
+        <v>1.010984301385229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032065904678982</v>
+        <v>0.9916511968181287</v>
       </c>
       <c r="D13">
-        <v>1.035503737598779</v>
+        <v>1.012412034871179</v>
       </c>
       <c r="E13">
-        <v>1.045220379588252</v>
+        <v>1.0079108199505</v>
       </c>
       <c r="F13">
-        <v>1.051443873951063</v>
+        <v>1.007332998849137</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037859915095777</v>
+        <v>1.042814309811454</v>
       </c>
       <c r="J13">
-        <v>1.038722480557583</v>
+        <v>1.021719213979023</v>
       </c>
       <c r="K13">
-        <v>1.039108035580953</v>
+        <v>1.027261992746775</v>
       </c>
       <c r="L13">
-        <v>1.048788611992694</v>
+        <v>1.022844484139431</v>
       </c>
       <c r="M13">
-        <v>1.054989393361729</v>
+        <v>1.022277479155533</v>
       </c>
       <c r="N13">
-        <v>1.016852829912277</v>
+        <v>1.011031517478207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032215643730527</v>
+        <v>0.9924524435127478</v>
       </c>
       <c r="D14">
-        <v>1.035613718660928</v>
+        <v>1.012982513528575</v>
       </c>
       <c r="E14">
-        <v>1.045373011561131</v>
+        <v>1.008665336661573</v>
       </c>
       <c r="F14">
-        <v>1.051620691400988</v>
+        <v>1.008194254511138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037898555508294</v>
+        <v>1.043084849787547</v>
       </c>
       <c r="J14">
-        <v>1.03881113250248</v>
+        <v>1.022178723937041</v>
       </c>
       <c r="K14">
-        <v>1.039185977225521</v>
+        <v>1.027680335893815</v>
       </c>
       <c r="L14">
-        <v>1.048909394695729</v>
+        <v>1.023442423927431</v>
       </c>
       <c r="M14">
-        <v>1.055134493877164</v>
+        <v>1.022980044561991</v>
       </c>
       <c r="N14">
-        <v>1.016882467375319</v>
+        <v>1.011185772697209</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032307913764104</v>
+        <v>0.9929444308694553</v>
       </c>
       <c r="D15">
-        <v>1.035681488369951</v>
+        <v>1.013332899316991</v>
       </c>
       <c r="E15">
-        <v>1.04546707426772</v>
+        <v>1.009128782629631</v>
       </c>
       <c r="F15">
-        <v>1.051729663403407</v>
+        <v>1.008723264098058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037922334410583</v>
+        <v>1.043250736271389</v>
       </c>
       <c r="J15">
-        <v>1.038865748707802</v>
+        <v>1.022460818952547</v>
       </c>
       <c r="K15">
-        <v>1.039233989266188</v>
+        <v>1.027937126088179</v>
       </c>
       <c r="L15">
-        <v>1.048983818309314</v>
+        <v>1.023809589952107</v>
       </c>
       <c r="M15">
-        <v>1.05522390910318</v>
+        <v>1.023411502150446</v>
       </c>
       <c r="N15">
-        <v>1.016900725454643</v>
+        <v>1.011280470697098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032845130152307</v>
+        <v>0.9957827330285209</v>
       </c>
       <c r="D16">
-        <v>1.036076039244041</v>
+        <v>1.015355705557274</v>
       </c>
       <c r="E16">
-        <v>1.04601488111399</v>
+        <v>1.011804710451316</v>
       </c>
       <c r="F16">
-        <v>1.052364368326282</v>
+        <v>1.011777797805903</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038060298720413</v>
+        <v>1.044204182696919</v>
       </c>
       <c r="J16">
-        <v>1.039183558716988</v>
+        <v>1.024087353579094</v>
       </c>
       <c r="K16">
-        <v>1.039513280841693</v>
+        <v>1.02941725436984</v>
       </c>
       <c r="L16">
-        <v>1.04941707750948</v>
+        <v>1.025927987235998</v>
       </c>
       <c r="M16">
-        <v>1.055744557314372</v>
+        <v>1.02590154456345</v>
       </c>
       <c r="N16">
-        <v>1.017006956299675</v>
+        <v>1.011826489998492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033182256041133</v>
+        <v>0.9975413748212003</v>
       </c>
       <c r="D17">
-        <v>1.036323619082878</v>
+        <v>1.016610243722352</v>
       </c>
       <c r="E17">
-        <v>1.046358787627695</v>
+        <v>1.013464720906081</v>
       </c>
       <c r="F17">
-        <v>1.052762889038925</v>
+        <v>1.013672735621603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038146452757599</v>
+        <v>1.044791783373975</v>
       </c>
       <c r="J17">
-        <v>1.03938284133925</v>
+        <v>1.025094363341016</v>
       </c>
       <c r="K17">
-        <v>1.039688331969554</v>
+        <v>1.030333171073363</v>
       </c>
       <c r="L17">
-        <v>1.049688920452812</v>
+        <v>1.027240712947577</v>
       </c>
       <c r="M17">
-        <v>1.056071332705468</v>
+        <v>1.027445205350075</v>
       </c>
       <c r="N17">
-        <v>1.017073557383154</v>
+        <v>1.012164534633451</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033378947453236</v>
+        <v>0.9985595197918038</v>
       </c>
       <c r="D18">
-        <v>1.036468059622046</v>
+        <v>1.017336950450919</v>
       </c>
       <c r="E18">
-        <v>1.04655948355116</v>
+        <v>1.014426466257595</v>
       </c>
       <c r="F18">
-        <v>1.052995478481833</v>
+        <v>1.014770618530378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038196565156351</v>
+        <v>1.045130813737794</v>
       </c>
       <c r="J18">
-        <v>1.039499053538497</v>
+        <v>1.025677057407066</v>
       </c>
       <c r="K18">
-        <v>1.039790385150257</v>
+        <v>1.030862988558646</v>
       </c>
       <c r="L18">
-        <v>1.049847507004814</v>
+        <v>1.028000741333683</v>
       </c>
       <c r="M18">
-        <v>1.056262002074614</v>
+        <v>1.0283391712161</v>
       </c>
       <c r="N18">
-        <v>1.017112392033648</v>
+        <v>1.012360137872302</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033446022853876</v>
+        <v>0.9989054030567115</v>
       </c>
       <c r="D19">
-        <v>1.036517315394525</v>
+        <v>1.017583893667608</v>
       </c>
       <c r="E19">
-        <v>1.046627932774078</v>
+        <v>1.014753307619729</v>
       </c>
       <c r="F19">
-        <v>1.053074809014985</v>
+        <v>1.01514373097352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03821362845846</v>
+        <v>1.045245791655558</v>
       </c>
       <c r="J19">
-        <v>1.039538674457543</v>
+        <v>1.025874957334419</v>
       </c>
       <c r="K19">
-        <v>1.039825173935188</v>
+        <v>1.031042901371044</v>
       </c>
       <c r="L19">
-        <v>1.049901585152195</v>
+        <v>1.028258943477124</v>
       </c>
       <c r="M19">
-        <v>1.056327026696032</v>
+        <v>1.028642915505503</v>
       </c>
       <c r="N19">
-        <v>1.017125631491234</v>
+        <v>1.012426569975955</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033146080279167</v>
+        <v>0.9973534839060239</v>
       </c>
       <c r="D20">
-        <v>1.036297052849655</v>
+        <v>1.016476167924514</v>
       </c>
       <c r="E20">
-        <v>1.046321879248571</v>
+        <v>1.013287294604274</v>
       </c>
       <c r="F20">
-        <v>1.052720117145014</v>
+        <v>1.013470196759533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038137223699638</v>
+        <v>1.044729124299662</v>
       </c>
       <c r="J20">
-        <v>1.039361462880115</v>
+        <v>1.024986806889029</v>
       </c>
       <c r="K20">
-        <v>1.03966955592661</v>
+        <v>1.030235361262079</v>
       </c>
       <c r="L20">
-        <v>1.049659751666325</v>
+        <v>1.027100458583005</v>
       </c>
       <c r="M20">
-        <v>1.056036265878691</v>
+        <v>1.027280253325767</v>
       </c>
       <c r="N20">
-        <v>1.017066413021315</v>
+        <v>1.012128429052228</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032171547046973</v>
+        <v>0.9922168489894316</v>
       </c>
       <c r="D21">
-        <v>1.035581330571098</v>
+        <v>1.012814752650875</v>
       </c>
       <c r="E21">
-        <v>1.045328060848917</v>
+        <v>1.008443450584198</v>
       </c>
       <c r="F21">
-        <v>1.051568617038533</v>
+        <v>1.007940978697163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03788718285412</v>
+        <v>1.043005350005657</v>
       </c>
       <c r="J21">
-        <v>1.0387850277924</v>
+        <v>1.022043623709229</v>
       </c>
       <c r="K21">
-        <v>1.03916302751417</v>
+        <v>1.027557345820012</v>
       </c>
       <c r="L21">
-        <v>1.048873826072185</v>
+        <v>1.023266605614405</v>
       </c>
       <c r="M21">
-        <v>1.055091762471097</v>
+        <v>1.022773452540432</v>
       </c>
       <c r="N21">
-        <v>1.016873740409566</v>
+        <v>1.011140420192766</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031559292577608</v>
+        <v>0.9889140795438556</v>
       </c>
       <c r="D22">
-        <v>1.035131620923314</v>
+        <v>1.010464723206585</v>
       </c>
       <c r="E22">
-        <v>1.04470412833808</v>
+        <v>1.005335629289267</v>
       </c>
       <c r="F22">
-        <v>1.050845885500647</v>
+        <v>1.004393506637214</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037728717260352</v>
+        <v>1.041886691316404</v>
       </c>
       <c r="J22">
-        <v>1.038422373020809</v>
+        <v>1.02014867581239</v>
       </c>
       <c r="K22">
-        <v>1.038844098993289</v>
+        <v>1.025831683851983</v>
       </c>
       <c r="L22">
-        <v>1.048379918429864</v>
+        <v>1.020802122212515</v>
       </c>
       <c r="M22">
-        <v>1.054498526350826</v>
+        <v>1.019878426874215</v>
       </c>
       <c r="N22">
-        <v>1.016752488288041</v>
+        <v>1.010504299363498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031883814982935</v>
+        <v>0.9906720932168591</v>
       </c>
       <c r="D23">
-        <v>1.035369992205632</v>
+        <v>1.011715189901611</v>
       </c>
       <c r="E23">
-        <v>1.045034799023237</v>
+        <v>1.006989233707403</v>
       </c>
       <c r="F23">
-        <v>1.051228899049677</v>
+        <v>1.006281040836417</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037812841614484</v>
+        <v>1.042483090495697</v>
       </c>
       <c r="J23">
-        <v>1.038614644372421</v>
+        <v>1.021157553476701</v>
       </c>
       <c r="K23">
-        <v>1.039013211727501</v>
+        <v>1.026750563941847</v>
       </c>
       <c r="L23">
-        <v>1.048641725541334</v>
+        <v>1.022113858846629</v>
       </c>
       <c r="M23">
-        <v>1.054812953734162</v>
+        <v>1.021419134880458</v>
       </c>
       <c r="N23">
-        <v>1.01681677674547</v>
+        <v>1.010842971331169</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03316242638956</v>
+        <v>0.9974384072909606</v>
       </c>
       <c r="D24">
-        <v>1.03630905689005</v>
+        <v>1.016536766568453</v>
       </c>
       <c r="E24">
-        <v>1.046338556244252</v>
+        <v>1.013367485994949</v>
       </c>
       <c r="F24">
-        <v>1.052739443493259</v>
+        <v>1.013561738183231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038141394345671</v>
+        <v>1.044757448679285</v>
       </c>
       <c r="J24">
-        <v>1.039371122965959</v>
+        <v>1.025035421451447</v>
       </c>
       <c r="K24">
-        <v>1.03967804017046</v>
+        <v>1.030279570947223</v>
       </c>
       <c r="L24">
-        <v>1.049672931707758</v>
+        <v>1.027163850960546</v>
       </c>
       <c r="M24">
-        <v>1.056052110861963</v>
+        <v>1.027354807864862</v>
       </c>
       <c r="N24">
-        <v>1.017069641289985</v>
+        <v>1.012144748461848</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034648202837311</v>
+        <v>1.00499247291234</v>
       </c>
       <c r="D25">
-        <v>1.037400015756226</v>
+        <v>1.021935163976055</v>
       </c>
       <c r="E25">
-        <v>1.047855453529854</v>
+        <v>1.020515284759449</v>
       </c>
       <c r="F25">
-        <v>1.054497796012523</v>
+        <v>1.021722098131369</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038517175355496</v>
+        <v>1.04725192248481</v>
       </c>
       <c r="J25">
-        <v>1.040247951360665</v>
+        <v>1.029352980695254</v>
       </c>
       <c r="K25">
-        <v>1.040447525120595</v>
+        <v>1.034202246997536</v>
       </c>
       <c r="L25">
-        <v>1.050870571766758</v>
+        <v>1.032803261201035</v>
       </c>
       <c r="M25">
-        <v>1.057492700032961</v>
+        <v>1.033992311699341</v>
       </c>
       <c r="N25">
-        <v>1.017362579498867</v>
+        <v>1.013594031172347</v>
       </c>
     </row>
   </sheetData>
